--- a/biology/Botanique/Caryocaraceae/Caryocaraceae.xlsx
+++ b/biology/Botanique/Caryocaraceae/Caryocaraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caryocaraceae (les Caryocaracées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 25 espèces réparties en 2 genres.
 Ce sont des arbres ou des arbustes à feuilles persistantes des régions tropicales d'Amérique.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type  Caryocar dérivé du grec κάρυο / karyo, noyer, noix, et καρδιά / kardia, cœur.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] et la classification phylogénétique APG III (2009)[2] situent cette famille dans l'ordre des Malpighiales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent cette famille dans l'ordre des Malpighiales.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010)[3], Angiosperm Phylogeny Website                        (14 mai 2010)[4], NCBI  (14 mai 2010)[5] et DELTA Angio           (14 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010), Angiosperm Phylogeny Website                        (14 mai 2010), NCBI  (14 mai 2010) et DELTA Angio           (14 mai 2010) :
 genre Anthodiscus G.Mey. (1818)
 genre Caryocar L. (1771)
-Selon ITIS      (14 mai 2010)[7] :
+Selon ITIS      (14 mai 2010) :
 genre Caryocar F. Allam. ex L.</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010) :
 genre Anthodiscus G.Mey. (1818)
 Anthodiscus amazonicus Gleason &amp; A.C.Sm. (1936)
 Anthodiscus chocoensis Prance (1980 publ. 1981)
@@ -639,7 +659,7 @@
 Caryocar nuciferum L. (1771)
 Caryocar pallidum A.C.Sm. (1939)
 Caryocar villosum (Aubl.) Pers. (1806)
-Selon NCBI  (14 mai 2010)[5] :
+Selon NCBI  (14 mai 2010) :
 genre Anthodiscus
 Anthodiscus amazonicus
 genre Caryocar
